--- a/BackTest/2019-10-28 BackTest CON.xlsx
+++ b/BackTest/2019-10-28 BackTest CON.xlsx
@@ -486,17 +486,13 @@
         <v>5.333333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -525,22 +521,14 @@
         <v>5.329999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -568,22 +556,14 @@
         <v>5.33</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -611,17 +591,13 @@
         <v>5.33</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -650,22 +626,14 @@
         <v>5.33</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,9 +669,7 @@
       <c r="J8" t="n">
         <v>5.33</v>
       </c>
-      <c r="K8" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -742,11 +708,9 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.33</v>
-      </c>
+        <v>5.35</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -785,11 +749,9 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.33</v>
-      </c>
+        <v>5.36</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -830,9 +792,7 @@
       <c r="J11" t="n">
         <v>5.37</v>
       </c>
-      <c r="K11" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -865,17 +825,13 @@
         <v>5.370000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -908,17 +864,13 @@
         <v>5.370000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -951,17 +903,13 @@
         <v>5.370000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -994,17 +942,13 @@
         <v>5.373333333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1037,17 +981,13 @@
         <v>5.38</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1080,17 +1020,13 @@
         <v>5.399999999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1123,17 +1059,13 @@
         <v>5.420000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1172,9 +1104,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1210,20 +1140,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>5.33</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1254,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1295,14 +1215,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1336,14 +1250,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1377,14 +1285,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1418,14 +1320,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1459,14 +1355,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1500,14 +1390,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1541,14 +1425,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1582,14 +1460,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1620,17 +1492,11 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1661,17 +1527,11 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1702,17 +1562,11 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1746,14 +1600,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1784,17 +1632,11 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1828,14 +1670,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1869,14 +1705,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1907,17 +1737,11 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1948,17 +1772,11 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1992,14 +1810,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2033,14 +1845,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2074,14 +1880,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2115,14 +1915,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2156,14 +1950,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2194,19 +1982,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>1.019390243902439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2340,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2480,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2515,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2620,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -3740,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3775,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -26315,7 +26097,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
@@ -26350,7 +26132,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
@@ -26385,7 +26167,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
@@ -26420,7 +26202,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest CON.xlsx
+++ b/BackTest/2019-10-28 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>157616.692</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>157616.692</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>157616.692</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -1461,7 +1441,7 @@
         <v>711293.013</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2484,14 +2464,10 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="J63" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2521,7 +2497,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>5.33</v>
@@ -2529,11 +2505,7 @@
       <c r="J64" t="n">
         <v>5.33</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2562,7 +2534,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>5.33</v>
@@ -2603,7 +2575,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>5.33</v>
@@ -2611,7 +2583,11 @@
       <c r="J66" t="n">
         <v>5.33</v>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2640,7 +2616,7 @@
         <v>-1084890.7894</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>5.33</v>
@@ -2681,7 +2657,7 @@
         <v>-950730.0640999998</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>5.35</v>
@@ -2722,9 +2698,11 @@
         <v>-847528.6717999999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.36</v>
+      </c>
       <c r="J69" t="n">
         <v>5.33</v>
       </c>
@@ -2761,9 +2739,11 @@
         <v>-847528.6717999999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.37</v>
+      </c>
       <c r="J70" t="n">
         <v>5.33</v>
       </c>
@@ -2839,11 +2819,9 @@
         <v>-847528.6717999999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>5.33</v>
       </c>
@@ -3192,7 +3170,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
@@ -3200,11 +3178,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.019390243902439</v>
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
     </row>
@@ -3234,8 +3212,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3267,8 +3251,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3300,8 +3290,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3333,8 +3329,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3366,8 +3368,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3399,8 +3407,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3432,8 +3446,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3465,8 +3485,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3498,8 +3524,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3531,8 +3563,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3564,8 +3602,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3597,8 +3641,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3630,8 +3680,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3663,8 +3719,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3696,8 +3758,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3726,11 +3794,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3759,11 +3833,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3792,11 +3872,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3825,11 +3911,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3861,8 +3953,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3891,11 +3989,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3924,11 +4028,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3960,8 +4070,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3993,8 +4109,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4026,8 +4148,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4059,8 +4187,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4092,8 +4226,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4125,8 +4265,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4158,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4191,8 +4343,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4224,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4257,8 +4421,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4290,8 +4460,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4323,8 +4499,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4356,8 +4538,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4389,8 +4577,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4422,8 +4616,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4455,8 +4655,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4488,8 +4694,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4521,8 +4733,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4554,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4587,8 +4811,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4620,8 +4850,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4653,8 +4889,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4686,8 +4928,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4719,8 +4967,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4752,8 +5006,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4785,8 +5045,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4818,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4851,8 +5123,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4884,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4917,8 +5201,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4950,8 +5240,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4983,8 +5279,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5016,8 +5318,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5049,8 +5357,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5082,8 +5396,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5115,8 +5435,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5148,8 +5474,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5181,8 +5513,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5214,8 +5552,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5247,8 +5591,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5280,8 +5630,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5310,11 +5666,17 @@
         <v>2362863.7203</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5343,11 +5705,17 @@
         <v>2362863.7203</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5376,11 +5744,17 @@
         <v>2347197.3987</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5409,11 +5783,17 @@
         <v>2347197.3987</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5442,11 +5822,17 @@
         <v>2347197.3987</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5475,11 +5861,17 @@
         <v>2347197.3987</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5508,11 +5900,17 @@
         <v>2347197.3987</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5541,11 +5939,17 @@
         <v>2347197.3987</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5574,11 +5978,17 @@
         <v>2347197.3987</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5610,8 +6020,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5643,8 +6059,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5676,8 +6098,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5706,11 +6134,17 @@
         <v>1801479.2668</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5742,8 +6176,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5775,8 +6215,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5808,8 +6254,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5841,8 +6293,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5874,8 +6332,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5907,8 +6371,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5940,8 +6410,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5973,8 +6449,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6006,8 +6488,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6036,13 +6524,19 @@
         <v>1846924.3629</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>1.017514071294559</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -6069,7 +6563,7 @@
         <v>1644850.808387156</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6102,7 +6596,7 @@
         <v>1644850.808387156</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6135,7 +6629,7 @@
         <v>1633927.184787156</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6168,7 +6662,7 @@
         <v>1784034.918187156</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6366,7 +6860,7 @@
         <v>1842440.242687156</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7521,7 +8015,7 @@
         <v>1880896.976087156</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7785,7 +8279,7 @@
         <v>1389722.883287156</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8247,7 +8741,7 @@
         <v>1389722.883287156</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8709,7 +9203,7 @@
         <v>2081853.534087156</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8742,7 +9236,7 @@
         <v>2081853.534087156</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8775,7 +9269,7 @@
         <v>2081853.534087156</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8808,7 +9302,7 @@
         <v>2081853.534087156</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8841,7 +9335,7 @@
         <v>1542909.120787156</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8874,7 +9368,7 @@
         <v>1966365.552887156</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8907,7 +9401,7 @@
         <v>1966365.552887156</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8940,7 +9434,7 @@
         <v>1966365.552887156</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8973,7 +9467,7 @@
         <v>1966365.552887156</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -16563,14 +17057,10 @@
         <v>520037.6432871562</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J486" t="n">
-        <v>5.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
@@ -16603,14 +17093,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16639,19 +17123,11 @@
         <v>520037.6432871562</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
-      </c>
-      <c r="I488" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J488" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16680,14 +17156,10 @@
         <v>520037.6432871562</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J489" t="n">
-        <v>5.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
@@ -16720,14 +17192,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16759,14 +17225,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16927,14 +17387,10 @@
         <v>520037.6432871562</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J496" t="n">
-        <v>5.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
@@ -16964,19 +17420,11 @@
         <v>520037.6432871562</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J497" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17005,19 +17453,11 @@
         <v>520037.6432871562</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J498" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17079,14 +17519,10 @@
         <v>520037.6432871562</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J500" t="n">
-        <v>5.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
@@ -17116,19 +17552,11 @@
         <v>520037.6432871562</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J501" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17160,14 +17588,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17196,14 +17618,10 @@
         <v>520037.6432871562</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J503" t="n">
-        <v>5.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
@@ -17233,19 +17651,11 @@
         <v>382910.8646871562</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J504" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17274,19 +17684,11 @@
         <v>382910.8646871562</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J505" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17315,14 +17717,10 @@
         <v>382910.8646871562</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J506" t="n">
-        <v>5.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
@@ -17352,19 +17750,11 @@
         <v>236411.3804871562</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J507" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17393,19 +17783,11 @@
         <v>236411.3804871562</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J508" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17434,19 +17816,11 @@
         <v>236411.3804871562</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J509" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17475,19 +17849,11 @@
         <v>236411.3804871562</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J510" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17516,19 +17882,11 @@
         <v>236411.3804871562</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J511" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17557,19 +17915,11 @@
         <v>236411.3804871562</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J512" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17598,19 +17948,11 @@
         <v>236411.3804871562</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J513" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17639,19 +17981,11 @@
         <v>313042.2100871562</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
-      </c>
-      <c r="I514" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J514" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17680,19 +18014,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J515" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17721,19 +18047,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
-      </c>
-      <c r="I516" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J516" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17762,19 +18080,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J517" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17803,19 +18113,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
-      </c>
-      <c r="I518" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J518" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17844,19 +18146,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J519" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17885,19 +18179,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J520" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17926,19 +18212,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J521" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17967,19 +18245,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J522" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18008,19 +18278,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J523" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18049,19 +18311,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J524" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18090,19 +18344,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J525" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18131,19 +18377,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
-      </c>
-      <c r="I526" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J526" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18172,19 +18410,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J527" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18213,19 +18443,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
-      </c>
-      <c r="I528" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J528" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18254,19 +18476,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
-      </c>
-      <c r="I529" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J529" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18295,19 +18509,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
-      </c>
-      <c r="I530" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J530" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18336,19 +18542,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J531" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18377,19 +18575,11 @@
         <v>136001.5427871562</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J532" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18418,19 +18608,11 @@
         <v>474408.2628871561</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J533" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18459,19 +18641,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
-      </c>
-      <c r="I534" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J534" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18500,19 +18674,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J535" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18541,19 +18707,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J536" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18582,19 +18740,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
-      </c>
-      <c r="I537" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J537" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18623,19 +18773,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J538" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18664,19 +18806,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J539" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18705,19 +18839,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J540" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18746,19 +18872,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J541" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18787,19 +18905,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J542" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18828,19 +18938,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J543" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18869,19 +18971,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J544" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18910,19 +19004,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J545" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18951,19 +19037,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J546" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18992,19 +19070,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J547" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19033,19 +19103,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J548" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19074,19 +19136,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J549" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19115,19 +19169,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J550" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19156,19 +19202,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J551" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19197,19 +19235,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J552" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19238,19 +19268,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
-      </c>
-      <c r="I553" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J553" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19279,19 +19301,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J554" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19320,19 +19334,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J555" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19361,19 +19367,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
-      </c>
-      <c r="I556" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J556" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19402,19 +19400,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
-      </c>
-      <c r="I557" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J557" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19443,19 +19433,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J558" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19484,19 +19466,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J559" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19525,19 +19499,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J560" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19566,19 +19532,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J561" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19607,19 +19565,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J562" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19648,19 +19598,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J563" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19689,19 +19631,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J564" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19730,19 +19664,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
-      </c>
-      <c r="I565" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J565" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19771,19 +19697,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
-      </c>
-      <c r="I566" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J566" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19812,19 +19730,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
-      </c>
-      <c r="I567" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J567" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19853,19 +19763,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J568" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19894,19 +19796,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
-      </c>
-      <c r="I569" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J569" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19935,19 +19829,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
-      </c>
-      <c r="I570" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J570" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19976,19 +19862,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
-      </c>
-      <c r="I571" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J571" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20017,19 +19895,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J572" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20058,19 +19928,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J573" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20099,19 +19961,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J574" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20140,19 +19994,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J575" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20181,19 +20027,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J576" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20222,19 +20060,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J577" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20263,19 +20093,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J578" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20304,19 +20126,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J579" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20345,19 +20159,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J580" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20386,19 +20192,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J581" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20427,19 +20225,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J582" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20468,19 +20258,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
-      </c>
-      <c r="I583" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J583" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20509,19 +20291,11 @@
         <v>187418.2065871561</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J584" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20550,19 +20324,11 @@
         <v>380298.7037871561</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="J585" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20591,19 +20357,11 @@
         <v>380298.7037871561</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
-      </c>
-      <c r="I586" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J586" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20632,19 +20390,11 @@
         <v>380298.7037871561</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J587" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20673,19 +20423,11 @@
         <v>380298.7037871561</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
-      </c>
-      <c r="I588" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J588" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20714,19 +20456,11 @@
         <v>380298.7037871561</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
-      </c>
-      <c r="I589" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J589" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20755,19 +20489,11 @@
         <v>380298.7037871561</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
-      </c>
-      <c r="I590" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J590" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20796,19 +20522,11 @@
         <v>380298.7037871561</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
-      </c>
-      <c r="I591" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J591" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20837,19 +20555,11 @@
         <v>380298.7037871561</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J592" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20878,19 +20588,11 @@
         <v>380298.7037871561</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
-      </c>
-      <c r="I593" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J593" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20919,19 +20621,11 @@
         <v>380298.7037871561</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J594" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20960,19 +20654,11 @@
         <v>383102.3100871561</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="J595" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21001,19 +20687,11 @@
         <v>383102.3100871561</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
-      </c>
-      <c r="I596" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J596" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21042,19 +20720,11 @@
         <v>721567.9219871562</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="J597" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21083,19 +20753,11 @@
         <v>725726.0576871561</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="J598" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21127,14 +20789,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21166,14 +20822,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21205,14 +20855,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21244,14 +20888,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21283,14 +20921,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21322,14 +20954,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21361,14 +20987,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21400,14 +21020,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21439,14 +21053,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21478,14 +21086,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21517,14 +21119,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21556,14 +21152,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21595,14 +21185,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21634,14 +21218,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21673,14 +21251,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21712,14 +21284,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21751,14 +21317,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21790,14 +21350,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21829,14 +21383,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21868,14 +21416,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21907,14 +21449,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21946,14 +21482,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21985,14 +21515,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22024,14 +21548,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22063,14 +21581,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22102,14 +21614,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22141,14 +21647,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22180,14 +21680,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22219,14 +21713,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22255,17 +21743,11 @@
         <v>497995.3020871563</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22294,17 +21776,11 @@
         <v>402914.7816871563</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22333,17 +21809,11 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22375,14 +21845,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22414,14 +21878,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22453,14 +21911,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22492,14 +21944,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22531,14 +21977,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22570,14 +22010,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22609,14 +22043,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22648,14 +22076,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22687,14 +22109,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22726,14 +22142,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22765,14 +22175,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22804,14 +22208,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22843,14 +22241,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22882,14 +22274,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22921,14 +22307,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22960,14 +22340,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22999,14 +22373,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23038,14 +22406,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23077,14 +22439,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23116,14 +22472,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23155,14 +22505,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23194,14 +22538,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23233,14 +22571,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23272,14 +22604,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23311,14 +22637,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23350,14 +22670,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23389,14 +22703,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23428,14 +22736,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23467,14 +22769,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23506,14 +22802,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23545,14 +22835,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23584,14 +22868,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23623,14 +22901,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23662,14 +22934,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23701,14 +22967,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23740,14 +23000,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23776,19 +23030,13 @@
         <v>1055803.952187156</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
-        <v>1.009842300556586</v>
+        <v>1</v>
       </c>
       <c r="M667" t="inlineStr"/>
     </row>
@@ -23815,7 +23063,7 @@
         <v>1055839.353587156</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23848,7 +23096,7 @@
         <v>674910.3345871564</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23881,7 +23129,7 @@
         <v>674910.3345871564</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23914,7 +23162,7 @@
         <v>674910.3345871564</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25993,7 +25241,7 @@
         <v>-160101.9932443553</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27907,7 +27155,7 @@
         <v>648249.2675871566</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27940,7 +27188,7 @@
         <v>65699.41208715667</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27973,7 +27221,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28006,7 +27254,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28039,7 +27287,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28105,7 +27353,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28138,7 +27386,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28171,7 +27419,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28270,7 +27518,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28303,7 +27551,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28402,7 +27650,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28435,7 +27683,7 @@
         <v>-43069.83901284331</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28468,7 +27716,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28501,7 +27749,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28534,7 +27782,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28567,7 +27815,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28600,7 +27848,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28633,7 +27881,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28666,7 +27914,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28699,7 +27947,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28732,7 +27980,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28765,7 +28013,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28798,7 +28046,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28831,7 +28079,7 @@
         <v>-162256.2015128433</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28864,7 +28112,7 @@
         <v>-152364.5916128433</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28897,7 +28145,7 @@
         <v>240457.5199177873</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28930,7 +28178,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28963,7 +28211,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29029,7 +28277,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29062,7 +28310,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29095,7 +28343,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29161,7 +28409,7 @@
         <v>140575.2904177873</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29194,7 +28442,7 @@
         <v>140575.2904177873</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29227,7 +28475,7 @@
         <v>500647.8403177873</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29293,7 +28541,7 @@
         <v>511138.4533177873</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29359,7 +28607,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29392,7 +28640,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29425,7 +28673,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29458,7 +28706,7 @@
         <v>515252.4395177874</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29491,7 +28739,7 @@
         <v>515252.4395177874</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29524,7 +28772,7 @@
         <v>702116.3753177874</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29557,7 +28805,7 @@
         <v>2116.375317787402</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29590,7 +28838,7 @@
         <v>142270.8063177874</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29623,7 +28871,7 @@
         <v>-1134448.735682213</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29656,7 +28904,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29689,7 +28937,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29722,7 +28970,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29755,7 +29003,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29788,7 +29036,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29821,7 +29069,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -29854,7 +29102,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29887,7 +29135,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29920,7 +29168,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -29953,7 +29201,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29986,7 +29234,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30019,7 +29267,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30052,7 +29300,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30085,7 +29333,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30118,7 +29366,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30151,7 +29399,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30184,7 +29432,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30217,7 +29465,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30250,7 +29498,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30283,7 +29531,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30382,7 +29630,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30448,7 +29696,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30481,7 +29729,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30514,7 +29762,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30547,7 +29795,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30580,7 +29828,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30613,7 +29861,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30646,7 +29894,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30679,7 +29927,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30712,7 +29960,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30745,7 +29993,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30778,7 +30026,7 @@
         <v>-820083.3810822126</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30811,7 +30059,7 @@
         <v>-1114860.339782213</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30844,7 +30092,7 @@
         <v>-1114860.339782213</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30877,7 +30125,7 @@
         <v>-1114860.339782213</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30910,7 +30158,7 @@
         <v>-1023432.084882213</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30943,7 +30191,7 @@
         <v>-557629.8342822125</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30976,7 +30224,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31009,7 +30257,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31042,7 +30290,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31075,7 +30323,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31108,7 +30356,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31141,7 +30389,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31174,7 +30422,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31207,7 +30455,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31240,7 +30488,7 @@
         <v>-975075.0229822126</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31273,7 +30521,7 @@
         <v>-975075.0229822126</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31306,7 +30554,7 @@
         <v>-1107568.555982213</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31339,7 +30587,7 @@
         <v>-1107568.555982213</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31372,7 +30620,7 @@
         <v>-1107568.555982213</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31405,7 +30653,7 @@
         <v>-1107568.555982213</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31438,7 +30686,7 @@
         <v>-1107568.555982213</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31471,7 +30719,7 @@
         <v>-1331194.638682212</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31504,7 +30752,7 @@
         <v>-1331194.638682212</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31537,7 +30785,7 @@
         <v>-1379589.709882212</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31570,7 +30818,7 @@
         <v>-1776245.757482212</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31603,7 +30851,7 @@
         <v>-1776245.757482212</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31636,7 +30884,7 @@
         <v>-1776245.757482212</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31669,7 +30917,7 @@
         <v>-1602179.049982212</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31702,7 +30950,7 @@
         <v>-1714968.488282212</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31735,7 +30983,7 @@
         <v>-1714968.488282212</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31768,7 +31016,7 @@
         <v>-1714968.488282212</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31801,7 +31049,7 @@
         <v>-1414437.525582212</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31834,7 +31082,7 @@
         <v>-1414437.525582212</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31867,7 +31115,7 @@
         <v>-1414437.525582212</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31900,7 +31148,7 @@
         <v>-1414437.525582212</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31933,7 +31181,7 @@
         <v>-1414437.525582212</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -33517,7 +32765,7 @@
         <v>413316.844717788</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33550,7 +32798,7 @@
         <v>292596.405517788</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33616,7 +32864,7 @@
         <v>292596.405517788</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33880,7 +33128,7 @@
         <v>-884517.043082212</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34144,7 +33392,7 @@
         <v>-1087485.625182212</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34342,7 +33590,7 @@
         <v>-1087485.625182212</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34375,7 +33623,7 @@
         <v>-1087485.625182212</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34441,7 +33689,7 @@
         <v>-1087485.625182212</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34606,7 +33854,7 @@
         <v>-1397251.961782212</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34639,7 +33887,7 @@
         <v>-1397251.961782212</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34672,7 +33920,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34738,7 +33986,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34804,7 +34052,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35068,7 +34316,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35101,7 +34349,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35134,7 +34382,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -36531,6 +35779,6 @@
       <c r="M1053" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest CON.xlsx
+++ b/BackTest/2019-10-28 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2497,14 +2497,10 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2534,19 +2530,11 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2575,19 +2563,11 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,19 +2596,11 @@
         <v>-1084890.7894</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2657,19 +2629,11 @@
         <v>-950730.0640999998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2698,19 +2662,11 @@
         <v>-847528.6717999999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2739,19 +2695,11 @@
         <v>-847528.6717999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2783,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2822,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2861,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2900,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2939,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2978,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3017,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3056,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3095,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3134,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3173,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3212,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3251,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3290,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3329,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3368,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3407,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3446,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3485,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3524,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3563,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3602,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3641,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3680,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3719,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3758,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3797,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3836,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3875,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3911,17 +3685,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3950,17 +3718,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3989,17 +3751,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4028,17 +3784,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4067,17 +3817,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4106,17 +3850,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4145,17 +3883,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4184,17 +3916,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4223,17 +3949,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4262,17 +3982,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4301,17 +4015,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4340,17 +4048,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4379,17 +4081,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4418,17 +4114,11 @@
         <v>1123634.5727</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4460,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4499,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4538,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4577,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4616,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4655,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4694,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4733,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4772,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4811,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4850,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4889,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4928,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4967,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5006,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5045,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5084,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5123,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5162,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5201,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5240,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5279,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5318,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5357,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5396,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5435,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5474,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5513,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5552,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5591,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5630,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5669,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5708,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5747,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5786,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5825,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5864,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5903,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5942,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5981,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6020,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6059,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6098,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6137,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6176,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6215,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6254,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6293,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6332,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6371,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6410,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6449,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6488,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6524,19 +5896,13 @@
         <v>1846924.3629</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
-        <v>1.017514071294559</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -6563,7 +5929,7 @@
         <v>1644850.808387156</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6596,7 +5962,7 @@
         <v>1644850.808387156</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6629,7 +5995,7 @@
         <v>1633927.184787156</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6662,7 +6028,7 @@
         <v>1784034.918187156</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -20918,7 +20284,7 @@
         <v>1333776.070387156</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20951,7 +20317,7 @@
         <v>1333776.070387156</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20984,7 +20350,7 @@
         <v>1671413.396787156</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21149,7 +20515,7 @@
         <v>681076.9761871563</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21182,7 +20548,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21215,7 +20581,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21248,7 +20614,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21281,7 +20647,7 @@
         <v>896839.2822871563</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21314,7 +20680,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21347,7 +20713,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21380,7 +20746,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21413,7 +20779,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21446,7 +20812,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21479,7 +20845,7 @@
         <v>955261.5912871563</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21512,7 +20878,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21545,7 +20911,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21578,7 +20944,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21611,7 +20977,7 @@
         <v>784173.1057871563</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21710,7 +21076,7 @@
         <v>784173.1057871563</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21743,7 +21109,7 @@
         <v>497995.3020871563</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21776,7 +21142,7 @@
         <v>402914.7816871563</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21809,7 +21175,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21842,7 +21208,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21875,7 +21241,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21908,7 +21274,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -27551,7 +26917,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27650,7 +27016,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27683,7 +27049,7 @@
         <v>-43069.83901284331</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27716,7 +27082,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27749,7 +27115,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27782,7 +27148,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27815,7 +27181,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27848,7 +27214,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27881,7 +27247,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27914,7 +27280,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27947,7 +27313,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27980,7 +27346,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28442,7 +27808,7 @@
         <v>140575.2904177873</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28541,7 +27907,7 @@
         <v>511138.4533177873</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28607,7 +27973,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28640,7 +28006,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28673,7 +28039,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28706,7 +28072,7 @@
         <v>515252.4395177874</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28739,7 +28105,7 @@
         <v>515252.4395177874</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28772,7 +28138,7 @@
         <v>702116.3753177874</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28805,7 +28171,7 @@
         <v>2116.375317787402</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28838,7 +28204,7 @@
         <v>142270.8063177874</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28871,7 +28237,7 @@
         <v>-1134448.735682213</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28904,7 +28270,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28937,7 +28303,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28970,7 +28336,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29003,7 +28369,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29036,7 +28402,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29069,7 +28435,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -29102,7 +28468,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29135,7 +28501,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29168,7 +28534,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -29201,7 +28567,7 @@
         <v>-897801.1550822125</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29234,7 +28600,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -29267,7 +28633,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -29300,7 +28666,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -29333,7 +28699,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29366,7 +28732,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -29399,7 +28765,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -29432,7 +28798,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29465,7 +28831,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29498,7 +28864,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -29531,7 +28897,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29630,7 +28996,7 @@
         <v>-878882.6396822125</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29696,7 +29062,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29729,7 +29095,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29762,7 +29128,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29795,7 +29161,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29828,7 +29194,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29861,7 +29227,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29894,7 +29260,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29927,7 +29293,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29960,7 +29326,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29993,7 +29359,7 @@
         <v>-906869.7103822125</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30026,7 +29392,7 @@
         <v>-820083.3810822126</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30059,7 +29425,7 @@
         <v>-1114860.339782213</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30092,7 +29458,7 @@
         <v>-1114860.339782213</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30125,7 +29491,7 @@
         <v>-1114860.339782213</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30158,7 +29524,7 @@
         <v>-1023432.084882213</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30191,7 +29557,7 @@
         <v>-557629.8342822125</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30224,7 +29590,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30257,7 +29623,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30290,7 +29656,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30323,7 +29689,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30356,7 +29722,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30389,7 +29755,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30422,7 +29788,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30455,7 +29821,7 @@
         <v>-691749.1107822126</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30488,7 +29854,7 @@
         <v>-975075.0229822126</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30521,7 +29887,7 @@
         <v>-975075.0229822126</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30554,7 +29920,7 @@
         <v>-1107568.555982213</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30587,7 +29953,7 @@
         <v>-1107568.555982213</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30620,7 +29986,7 @@
         <v>-1107568.555982213</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30653,7 +30019,7 @@
         <v>-1107568.555982213</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30686,7 +30052,7 @@
         <v>-1107568.555982213</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30719,7 +30085,7 @@
         <v>-1331194.638682212</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30752,7 +30118,7 @@
         <v>-1331194.638682212</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30785,7 +30151,7 @@
         <v>-1379589.709882212</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30818,7 +30184,7 @@
         <v>-1776245.757482212</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30851,7 +30217,7 @@
         <v>-1776245.757482212</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30884,7 +30250,7 @@
         <v>-1776245.757482212</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30917,7 +30283,7 @@
         <v>-1602179.049982212</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30950,7 +30316,7 @@
         <v>-1714968.488282212</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30983,7 +30349,7 @@
         <v>-1714968.488282212</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31016,7 +30382,7 @@
         <v>-1714968.488282212</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31049,7 +30415,7 @@
         <v>-1414437.525582212</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31082,7 +30448,7 @@
         <v>-1414437.525582212</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31115,7 +30481,7 @@
         <v>-1414437.525582212</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31148,7 +30514,7 @@
         <v>-1414437.525582212</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31181,7 +30547,7 @@
         <v>-1414437.525582212</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32765,7 +32131,7 @@
         <v>413316.844717788</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32798,7 +32164,7 @@
         <v>292596.405517788</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32864,7 +32230,7 @@
         <v>292596.405517788</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33128,7 +32494,7 @@
         <v>-884517.043082212</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33392,7 +32758,7 @@
         <v>-1087485.625182212</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33590,7 +32956,7 @@
         <v>-1087485.625182212</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -33623,7 +32989,7 @@
         <v>-1087485.625182212</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33689,7 +33055,7 @@
         <v>-1087485.625182212</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33854,7 +33220,7 @@
         <v>-1397251.961782212</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33887,7 +33253,7 @@
         <v>-1397251.961782212</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33920,7 +33286,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33986,7 +33352,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34052,7 +33418,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34316,7 +33682,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -34349,7 +33715,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -34382,7 +33748,7 @@
         <v>-1215553.175382212</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35702,10 +35068,14 @@
         <v>-3780182.396282212</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>5.39</v>
+      </c>
       <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
@@ -35735,11 +35105,19 @@
         <v>-3769114.271482212</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35768,17 +35146,25 @@
         <v>-3769114.271482212</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
       <c r="M1053" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest CON.xlsx
+++ b/BackTest/2019-10-28 BackTest CON.xlsx
@@ -2431,10 +2431,14 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5.33</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
@@ -2467,8 +2471,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2507,19 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,10 +2548,14 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.33</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2563,11 +2585,19 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2626,19 @@
         <v>-1084890.7894</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2667,19 @@
         <v>-950730.0640999998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2711,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2750,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2789,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2828,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2867,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2906,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2945,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2984,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3023,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3062,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3101,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3140,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3179,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3218,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3257,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3296,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3335,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3374,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3413,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3452,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3491,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3530,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3569,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3608,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3647,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3686,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3725,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3764,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3803,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3842,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3881,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3917,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3956,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3995,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4034,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4073,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4112,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4151,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4190,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4229,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4268,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4307,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4346,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4385,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4424,17 @@
         <v>1123634.5727</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4466,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4505,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4544,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4583,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4622,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4661,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4700,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4739,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4778,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4817,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4856,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4895,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4973,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5051,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5090,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5129,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5324,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5480,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5597,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5636,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5675,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,13 +5711,19 @@
         <v>2362863.7203</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>1.028771106941839</v>
       </c>
       <c r="M146" t="inlineStr"/>
     </row>
@@ -5236,7 +5750,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5783,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5816,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5849,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5882,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5915,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5948,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5981,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +6014,7 @@
         <v>2128577.4292</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +6047,7 @@
         <v>1801479.2668</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -20284,7 +20798,7 @@
         <v>1333776.070387156</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20831,7 @@
         <v>1333776.070387156</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20864,7 @@
         <v>1671413.396787156</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20515,7 +21029,7 @@
         <v>681076.9761871563</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +21062,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +21095,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +21128,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +21161,7 @@
         <v>896839.2822871563</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +21194,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +21227,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +21260,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +21293,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +21326,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +21359,7 @@
         <v>955261.5912871563</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +21392,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +21425,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +21458,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +21491,7 @@
         <v>784173.1057871563</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21076,7 +21590,7 @@
         <v>784173.1057871563</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21623,7 @@
         <v>497995.3020871563</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21656,7 @@
         <v>402914.7816871563</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21689,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21722,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21755,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21788,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -26488,7 +27002,7 @@
         <v>648249.2675871566</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +27035,7 @@
         <v>648249.2675871566</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +27068,7 @@
         <v>65699.41208715667</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +27101,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +27134,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +27167,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +27200,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +27233,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +27266,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +27299,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +27332,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +27365,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +27398,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +27431,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +27464,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +27497,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27530,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27563,7 @@
         <v>-43069.83901284331</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27596,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27629,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27662,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27695,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27728,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27761,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27794,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27827,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27860,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27893,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27926,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27959,7 @@
         <v>-162256.2015128433</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27992,7 @@
         <v>-152364.5916128433</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +28025,7 @@
         <v>240457.5199177873</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +28058,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27610,7 +28124,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +28157,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +28190,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +28223,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +28256,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +28289,7 @@
         <v>140575.2904177873</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28006,7 +28520,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28553,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28171,7 +28685,7 @@
         <v>2116.375317787402</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -34474,10 +34988,14 @@
         <v>-2125632.894982212</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>5.45</v>
+      </c>
       <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
@@ -34507,11 +35025,19 @@
         <v>-2108343.641582212</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34540,11 +35066,19 @@
         <v>-2237906.129182212</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34573,10 +35107,14 @@
         <v>-2237906.129182212</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>5.45</v>
+      </c>
       <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
@@ -34606,11 +35144,19 @@
         <v>-2237906.129182212</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34639,11 +35185,19 @@
         <v>-2237906.129182212</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34672,11 +35226,19 @@
         <v>-2519976.344982212</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34705,11 +35267,19 @@
         <v>-2751051.491482212</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34738,11 +35308,19 @@
         <v>-3173564.276582212</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34771,11 +35349,19 @@
         <v>-3173564.276582212</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34804,11 +35390,19 @@
         <v>-3942744.800282212</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34837,11 +35431,19 @@
         <v>-4060275.475282212</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34870,11 +35472,19 @@
         <v>-4060275.475282212</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34903,11 +35513,19 @@
         <v>-4269728.327382212</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34936,11 +35554,19 @@
         <v>-3908034.390882212</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -34969,11 +35595,19 @@
         <v>-3871741.167182212</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35002,11 +35636,19 @@
         <v>-3871741.167182212</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35035,11 +35677,19 @@
         <v>-3780182.396282212</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35074,9 +35724,13 @@
         <v>5.39</v>
       </c>
       <c r="J1051" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="K1051" t="inlineStr"/>
+        <v>5.45</v>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35111,11 +35765,11 @@
         <v>5.39</v>
       </c>
       <c r="J1052" t="n">
-        <v>5.39</v>
+        <v>5.45</v>
       </c>
       <c r="K1052" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1052" t="n">
@@ -35152,11 +35806,11 @@
         <v>5.4</v>
       </c>
       <c r="J1053" t="n">
-        <v>5.39</v>
+        <v>5.45</v>
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1053" t="n">
